--- a/ref/ingestion/calibrated/ecuador/model_input_variables_ecuador_se_calibrated.xlsx
+++ b/ref/ingestion/calibrated/ecuador/model_input_variables_ecuador_se_calibrated.xlsx
@@ -745,109 +745,109 @@
         <v>38.83107386</v>
       </c>
       <c r="K3" t="n">
-        <v>40.7395256</v>
+        <v>38.83107386</v>
       </c>
       <c r="L3" t="n">
-        <v>42.25398672</v>
+        <v>38.83107386</v>
       </c>
       <c r="M3" t="n">
-        <v>43.09221382</v>
+        <v>38.83107386</v>
       </c>
       <c r="N3" t="n">
-        <v>44.39106086</v>
+        <v>38.83107386</v>
       </c>
       <c r="O3" t="n">
-        <v>45.67741973</v>
+        <v>38.83107386</v>
       </c>
       <c r="P3" t="n">
-        <v>47.09170214</v>
+        <v>38.83107386</v>
       </c>
       <c r="Q3" t="n">
-        <v>48.59598329</v>
+        <v>38.83107386</v>
       </c>
       <c r="R3" t="n">
-        <v>50.25520448</v>
+        <v>38.83107386</v>
       </c>
       <c r="S3" t="n">
-        <v>52.07124644</v>
+        <v>38.83107386</v>
       </c>
       <c r="T3" t="n">
-        <v>53.95028727</v>
+        <v>38.83107386</v>
       </c>
       <c r="U3" t="n">
-        <v>55.89469218</v>
+        <v>38.83107386</v>
       </c>
       <c r="V3" t="n">
-        <v>57.90688651</v>
+        <v>38.83107386</v>
       </c>
       <c r="W3" t="n">
-        <v>59.98936838</v>
+        <v>38.83107386</v>
       </c>
       <c r="X3" t="n">
-        <v>62.14470074</v>
+        <v>38.83107386</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.37550593</v>
+        <v>38.83107386</v>
       </c>
       <c r="Z3" t="n">
-        <v>66.68447044</v>
+        <v>38.83107386</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.07436058</v>
+        <v>38.83107386</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.54799061</v>
+        <v>38.83107386</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.10827634</v>
+        <v>38.83107386</v>
       </c>
       <c r="AD3" t="n">
-        <v>76.75818214</v>
+        <v>38.83107386</v>
       </c>
       <c r="AE3" t="n">
-        <v>79.50074256000001</v>
+        <v>38.83107386</v>
       </c>
       <c r="AF3" t="n">
-        <v>82.33907012</v>
+        <v>38.83107386</v>
       </c>
       <c r="AG3" t="n">
-        <v>85.27635393</v>
+        <v>38.83107386</v>
       </c>
       <c r="AH3" t="n">
-        <v>88.3158834</v>
+        <v>38.83107386</v>
       </c>
       <c r="AI3" t="n">
-        <v>91.46103932</v>
+        <v>38.83107386</v>
       </c>
       <c r="AJ3" t="n">
-        <v>94.71529351</v>
+        <v>38.83107386</v>
       </c>
       <c r="AK3" t="n">
-        <v>98.08223058</v>
+        <v>38.83107386</v>
       </c>
       <c r="AL3" t="n">
-        <v>101.5655288</v>
+        <v>38.83107386</v>
       </c>
       <c r="AM3" t="n">
-        <v>105.1689578</v>
+        <v>38.83107386</v>
       </c>
       <c r="AN3" t="n">
-        <v>108.8964306</v>
+        <v>38.83107386</v>
       </c>
       <c r="AO3" t="n">
-        <v>112.7520034</v>
+        <v>38.83107386</v>
       </c>
       <c r="AP3" t="n">
-        <v>116.7398659</v>
+        <v>38.83107386</v>
       </c>
       <c r="AQ3" t="n">
-        <v>120.8643507</v>
+        <v>38.83107386</v>
       </c>
       <c r="AR3" t="n">
-        <v>125.1299356</v>
+        <v>38.83107386</v>
       </c>
       <c r="AS3" t="n">
-        <v>129.5412485</v>
+        <v>38.83107386</v>
       </c>
     </row>
     <row r="4">
@@ -876,109 +876,109 @@
         <v>10.64896106</v>
       </c>
       <c r="K4" t="n">
-        <v>10.93995588</v>
+        <v>10.64896106</v>
       </c>
       <c r="L4" t="n">
-        <v>11.22497854</v>
+        <v>10.64896106</v>
       </c>
       <c r="M4" t="n">
-        <v>11.80920172</v>
+        <v>10.64896106</v>
       </c>
       <c r="N4" t="n">
-        <v>12.14492665</v>
+        <v>10.64896106</v>
       </c>
       <c r="O4" t="n">
-        <v>12.47977591</v>
+        <v>10.64896106</v>
       </c>
       <c r="P4" t="n">
-        <v>12.84997243</v>
+        <v>10.64896106</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.2460467</v>
+        <v>10.64896106</v>
       </c>
       <c r="R4" t="n">
-        <v>13.68496934</v>
+        <v>10.64896106</v>
       </c>
       <c r="S4" t="n">
-        <v>14.16767585</v>
+        <v>10.64896106</v>
       </c>
       <c r="T4" t="n">
-        <v>14.67048758</v>
+        <v>10.64896106</v>
       </c>
       <c r="U4" t="n">
-        <v>15.19425785</v>
+        <v>10.64896106</v>
       </c>
       <c r="V4" t="n">
-        <v>15.73988515</v>
+        <v>10.64896106</v>
       </c>
       <c r="W4" t="n">
-        <v>16.30831534</v>
+        <v>10.64896106</v>
       </c>
       <c r="X4" t="n">
-        <v>16.9005455</v>
+        <v>10.64896106</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.51762663</v>
+        <v>10.64896106</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.16066381</v>
+        <v>10.64896106</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.83081376</v>
+        <v>10.64896106</v>
       </c>
       <c r="AB4" t="n">
-        <v>19.52929278</v>
+        <v>10.64896106</v>
       </c>
       <c r="AC4" t="n">
-        <v>20.25736572</v>
+        <v>10.64896106</v>
       </c>
       <c r="AD4" t="n">
-        <v>21.01636007</v>
+        <v>10.64896106</v>
       </c>
       <c r="AE4" t="n">
-        <v>21.80766246</v>
+        <v>10.64896106</v>
       </c>
       <c r="AF4" t="n">
-        <v>22.63271908</v>
+        <v>10.64896106</v>
       </c>
       <c r="AG4" t="n">
-        <v>23.49303873</v>
+        <v>10.64896106</v>
       </c>
       <c r="AH4" t="n">
-        <v>24.39018952</v>
+        <v>10.64896106</v>
       </c>
       <c r="AI4" t="n">
-        <v>25.32580491</v>
+        <v>10.64896106</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26.3015873</v>
+        <v>10.64896106</v>
       </c>
       <c r="AK4" t="n">
-        <v>27.31930573</v>
+        <v>10.64896106</v>
       </c>
       <c r="AL4" t="n">
-        <v>28.38080567</v>
+        <v>10.64896106</v>
       </c>
       <c r="AM4" t="n">
-        <v>29.48801404</v>
+        <v>10.64896106</v>
       </c>
       <c r="AN4" t="n">
-        <v>30.64292727</v>
+        <v>10.64896106</v>
       </c>
       <c r="AO4" t="n">
-        <v>31.84761623</v>
+        <v>10.64896106</v>
       </c>
       <c r="AP4" t="n">
-        <v>33.10423441</v>
+        <v>10.64896106</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34.41501926</v>
+        <v>10.64896106</v>
       </c>
       <c r="AR4" t="n">
-        <v>35.78229664</v>
+        <v>10.64896106</v>
       </c>
       <c r="AS4" t="n">
-        <v>37.20848398</v>
+        <v>10.64896106</v>
       </c>
     </row>
     <row r="5">
@@ -1007,109 +1007,109 @@
         <v>6.239061372</v>
       </c>
       <c r="K5" t="n">
-        <v>6.518427514</v>
+        <v>6.239061372</v>
       </c>
       <c r="L5" t="n">
-        <v>6.936925587999999</v>
+        <v>6.239061372</v>
       </c>
       <c r="M5" t="n">
-        <v>7.196583448999999</v>
+        <v>6.239061372</v>
       </c>
       <c r="N5" t="n">
-        <v>7.402811149</v>
+        <v>6.239061372</v>
       </c>
       <c r="O5" t="n">
-        <v>7.607812281</v>
+        <v>6.239061372</v>
       </c>
       <c r="P5" t="n">
-        <v>7.833481796</v>
+        <v>6.239061372</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.074160761</v>
+        <v>6.239061372</v>
       </c>
       <c r="R5" t="n">
-        <v>8.340166596</v>
+        <v>6.239061372</v>
       </c>
       <c r="S5" t="n">
-        <v>8.632126082999999</v>
+        <v>6.239061372</v>
       </c>
       <c r="T5" t="n">
-        <v>8.935810937999999</v>
+        <v>6.239061372</v>
       </c>
       <c r="U5" t="n">
-        <v>9.251868677999999</v>
+        <v>6.239061372</v>
       </c>
       <c r="V5" t="n">
-        <v>9.580973605000001</v>
+        <v>6.239061372</v>
       </c>
       <c r="W5" t="n">
-        <v>9.923833127</v>
+        <v>6.239061372</v>
       </c>
       <c r="X5" t="n">
-        <v>10.28118606</v>
+        <v>6.239061372</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.65380161</v>
+        <v>6.239061372</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.04248122</v>
+        <v>6.239061372</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.44806257</v>
+        <v>6.239061372</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.87141183</v>
+        <v>6.239061372</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.31343688</v>
+        <v>6.239061372</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.77507543</v>
+        <v>6.239061372</v>
       </c>
       <c r="AE5" t="n">
-        <v>13.25730139</v>
+        <v>6.239061372</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.76112757</v>
+        <v>6.239061372</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.28760694</v>
+        <v>6.239061372</v>
       </c>
       <c r="AH5" t="n">
-        <v>14.83783832</v>
+        <v>6.239061372</v>
       </c>
       <c r="AI5" t="n">
-        <v>15.41296606</v>
+        <v>6.239061372</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.01418179</v>
+        <v>6.239061372</v>
       </c>
       <c r="AK5" t="n">
-        <v>16.64272962</v>
+        <v>6.239061372</v>
       </c>
       <c r="AL5" t="n">
-        <v>17.29990504</v>
+        <v>6.239061372</v>
       </c>
       <c r="AM5" t="n">
-        <v>17.98705684</v>
+        <v>6.239061372</v>
       </c>
       <c r="AN5" t="n">
-        <v>18.7055965</v>
+        <v>6.239061372</v>
       </c>
       <c r="AO5" t="n">
-        <v>19.45699951</v>
+        <v>6.239061372</v>
       </c>
       <c r="AP5" t="n">
-        <v>20.24280569</v>
+        <v>6.239061372</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21.0646224</v>
+        <v>6.239061372</v>
       </c>
       <c r="AR5" t="n">
-        <v>21.92412658</v>
+        <v>6.239061372</v>
       </c>
       <c r="AS5" t="n">
-        <v>22.82306754</v>
+        <v>6.239061372</v>
       </c>
     </row>
     <row r="6">
@@ -1138,109 +1138,109 @@
         <v>2.954671495</v>
       </c>
       <c r="K6" t="n">
-        <v>3.080126548</v>
+        <v>2.954671495</v>
       </c>
       <c r="L6" t="n">
-        <v>3.183768001</v>
+        <v>2.954671495</v>
       </c>
       <c r="M6" t="n">
-        <v>3.266669999</v>
+        <v>2.954671495</v>
       </c>
       <c r="N6" t="n">
-        <v>3.361588594</v>
+        <v>2.954671495</v>
       </c>
       <c r="O6" t="n">
-        <v>3.455923617</v>
+        <v>2.954671495</v>
       </c>
       <c r="P6" t="n">
-        <v>3.560140589</v>
+        <v>2.954671495</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.67142209</v>
+        <v>2.954671495</v>
       </c>
       <c r="R6" t="n">
-        <v>3.794604334</v>
+        <v>2.954671495</v>
       </c>
       <c r="S6" t="n">
-        <v>3.929847167</v>
+        <v>2.954671495</v>
       </c>
       <c r="T6" t="n">
-        <v>4.07019666</v>
+        <v>2.954671495</v>
       </c>
       <c r="U6" t="n">
-        <v>4.215823087</v>
+        <v>2.954671495</v>
       </c>
       <c r="V6" t="n">
-        <v>4.366906548</v>
+        <v>2.954671495</v>
       </c>
       <c r="W6" t="n">
-        <v>4.5236353</v>
+        <v>2.954671495</v>
       </c>
       <c r="X6" t="n">
-        <v>4.686207257</v>
+        <v>2.954671495</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.854831048</v>
+        <v>2.954671495</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.029725587</v>
+        <v>2.954671495</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.211118257</v>
+        <v>2.954671495</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.399249713</v>
+        <v>2.954671495</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.594366965</v>
+        <v>2.954671495</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.796731138999999</v>
+        <v>2.954671495</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.006614932000001</v>
+        <v>2.954671495</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.224302253999999</v>
+        <v>2.954671495</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.450089021</v>
+        <v>2.954671495</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.68428089</v>
+        <v>2.954671495</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.927195331</v>
+        <v>2.954671495</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.179162458</v>
+        <v>2.954671495</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.440523291</v>
+        <v>2.954671495</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.711633128</v>
+        <v>2.954671495</v>
       </c>
       <c r="AM6" t="n">
-        <v>7.992862845</v>
+        <v>2.954671495</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.284593465</v>
+        <v>2.954671495</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.587217436</v>
+        <v>2.954671495</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.901141124</v>
+        <v>2.954671495</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9.226784771</v>
+        <v>2.954671495</v>
       </c>
       <c r="AR6" t="n">
-        <v>9.564583555</v>
+        <v>2.954671495</v>
       </c>
       <c r="AS6" t="n">
-        <v>9.914988205</v>
+        <v>2.954671495</v>
       </c>
     </row>
     <row r="7">
@@ -1531,109 +1531,109 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">

--- a/ref/ingestion/calibrated/ecuador/model_input_variables_ecuador_se_calibrated.xlsx
+++ b/ref/ingestion/calibrated/ecuador/model_input_variables_ecuador_se_calibrated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS15"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,12 +722,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>General</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>va_commercial_mmm_usd</t>
+          <t>area_gnrl_country_ha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -742,123 +742,123 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="K3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="L3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="M3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="N3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="O3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="P3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="Q3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="R3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="S3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="T3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="U3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="V3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="W3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="X3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="Z3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AB3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AC3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AD3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AE3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AF3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AG3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AH3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AI3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AK3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AL3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AM3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AN3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AO3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AP3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AQ3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AR3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
       <c r="AS3" t="n">
-        <v>38.83107386</v>
+        <v>25637000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>General</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>va_industrial_mmm_usd</t>
+          <t>elasticity_gnrl_rate_occupancy_to_gdppc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -873,123 +873,123 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="K4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="L4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="M4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="O4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="P4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="R4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="S4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="T4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="U4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="V4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="W4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="X4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AL4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AM4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AP4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AQ4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AR4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
       <c r="AS4" t="n">
-        <v>10.64896106</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>General</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>va_manufacturing_mmm_usd</t>
+          <t>frac_gnrl_eating_red_meat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1004,123 +1004,123 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AK5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AM5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AP5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>6.239061372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>General</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>va_mining_mmm_usd</t>
+          <t>limit_gnrl_annual_emissions_mt_ch4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1135,112 +1135,112 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="K6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="L6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="M6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="N6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="O6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="P6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="R6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="S6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="T6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="U6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="V6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="W6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="X6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.954671495</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="7">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>area_gnrl_country_ha</t>
+          <t>limit_gnrl_annual_emissions_mt_co2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1266,112 +1266,112 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="K7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="L7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="M7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="N7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="O7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="P7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="Q7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="R7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="S7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="T7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="U7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="V7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="W7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="X7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="Y7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="Z7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AA7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AB7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AC7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AD7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AE7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AF7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AG7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AH7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AI7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AK7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AL7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AM7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AN7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AO7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AP7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AQ7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AR7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
       <c r="AS7" t="n">
-        <v>25637000</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="8">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>elasticity_gnrl_rate_occupancy_to_gdppc</t>
+          <t>limit_gnrl_annual_emissions_mt_n2o</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1397,112 +1397,112 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="9">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>frac_gnrl_eating_red_meat</t>
+          <t>occrateinit_gnrl_occupancy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1528,112 +1528,112 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AF9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AM9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AN9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AO9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>3.145207224</v>
       </c>
     </row>
     <row r="10">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>limit_gnrl_annual_emissions_mt_ch4</t>
+          <t>population_gnrl_rural</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1659,112 +1659,112 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-999</v>
+        <v>5933924.29244</v>
       </c>
       <c r="K10" t="n">
-        <v>-999</v>
+        <v>6013650.36056</v>
       </c>
       <c r="L10" t="n">
-        <v>-999</v>
+        <v>6098119.8348</v>
       </c>
       <c r="M10" t="n">
-        <v>-999</v>
+        <v>6180950.24261</v>
       </c>
       <c r="N10" t="n">
-        <v>-999</v>
+        <v>6256948.83198</v>
       </c>
       <c r="O10" t="n">
-        <v>-999</v>
+        <v>6322214.1204</v>
       </c>
       <c r="P10" t="n">
-        <v>-999</v>
+        <v>5893282.29328168</v>
       </c>
       <c r="Q10" t="n">
-        <v>-999</v>
+        <v>5928675.12201756</v>
       </c>
       <c r="R10" t="n">
-        <v>-999</v>
+        <v>5964067.95075344</v>
       </c>
       <c r="S10" t="n">
-        <v>-999</v>
+        <v>5999460.77948932</v>
       </c>
       <c r="T10" t="n">
-        <v>-999</v>
+        <v>6034853.6082252</v>
       </c>
       <c r="U10" t="n">
-        <v>-999</v>
+        <v>6061748.23003496</v>
       </c>
       <c r="V10" t="n">
-        <v>-999</v>
+        <v>6088642.85184472</v>
       </c>
       <c r="W10" t="n">
-        <v>-999</v>
+        <v>6115537.47365448</v>
       </c>
       <c r="X10" t="n">
-        <v>-999</v>
+        <v>6142432.09546424</v>
       </c>
       <c r="Y10" t="n">
-        <v>-999</v>
+        <v>6169326.717274</v>
       </c>
       <c r="Z10" t="n">
-        <v>-999</v>
+        <v>6187758.7564683</v>
       </c>
       <c r="AA10" t="n">
-        <v>-999</v>
+        <v>6206190.7956626</v>
       </c>
       <c r="AB10" t="n">
-        <v>-999</v>
+        <v>6224622.8348569</v>
       </c>
       <c r="AC10" t="n">
-        <v>-999</v>
+        <v>6243054.8740512</v>
       </c>
       <c r="AD10" t="n">
-        <v>-999</v>
+        <v>6261486.9132455</v>
       </c>
       <c r="AE10" t="n">
-        <v>-999</v>
+        <v>6271848.89556004</v>
       </c>
       <c r="AF10" t="n">
-        <v>-999</v>
+        <v>6282210.87787458</v>
       </c>
       <c r="AG10" t="n">
-        <v>-999</v>
+        <v>6292572.86018912</v>
       </c>
       <c r="AH10" t="n">
-        <v>-999</v>
+        <v>6302934.84250366</v>
       </c>
       <c r="AI10" t="n">
-        <v>-999</v>
+        <v>6313296.8248182</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-999</v>
+        <v>6314840.16298904</v>
       </c>
       <c r="AK10" t="n">
-        <v>-999</v>
+        <v>6316383.50115988</v>
       </c>
       <c r="AL10" t="n">
-        <v>-999</v>
+        <v>6317926.83933072</v>
       </c>
       <c r="AM10" t="n">
-        <v>-999</v>
+        <v>6319470.17750156</v>
       </c>
       <c r="AN10" t="n">
-        <v>-999</v>
+        <v>6321013.5156724</v>
       </c>
       <c r="AO10" t="n">
-        <v>-999</v>
+        <v>6314549.69747136</v>
       </c>
       <c r="AP10" t="n">
-        <v>-999</v>
+        <v>6308085.87927032</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-999</v>
+        <v>6301622.06106928</v>
       </c>
       <c r="AR10" t="n">
-        <v>-999</v>
+        <v>6295158.24286824</v>
       </c>
       <c r="AS10" t="n">
-        <v>-999</v>
+        <v>6288694.4246672</v>
       </c>
     </row>
     <row r="11">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>limit_gnrl_annual_emissions_mt_co2</t>
+          <t>population_gnrl_urban</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1790,635 +1790,111 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-999</v>
+        <v>10278097.70756</v>
       </c>
       <c r="K11" t="n">
-        <v>-999</v>
+        <v>10477465.63944</v>
       </c>
       <c r="L11" t="n">
-        <v>-999</v>
+        <v>10687236.1652</v>
       </c>
       <c r="M11" t="n">
-        <v>-999</v>
+        <v>10903408.75739</v>
       </c>
       <c r="N11" t="n">
-        <v>-999</v>
+        <v>11116708.16802</v>
       </c>
       <c r="O11" t="n">
-        <v>-999</v>
+        <v>11320845.8796</v>
       </c>
       <c r="P11" t="n">
-        <v>-999</v>
+        <v>10625274.7787183</v>
       </c>
       <c r="Q11" t="n">
-        <v>-999</v>
+        <v>10761144.6519824</v>
       </c>
       <c r="R11" t="n">
-        <v>-999</v>
+        <v>10897014.5252466</v>
       </c>
       <c r="S11" t="n">
-        <v>-999</v>
+        <v>11032884.3985107</v>
       </c>
       <c r="T11" t="n">
-        <v>-999</v>
+        <v>11168754.2717748</v>
       </c>
       <c r="U11" t="n">
-        <v>-999</v>
+        <v>11295897.843965</v>
       </c>
       <c r="V11" t="n">
-        <v>-999</v>
+        <v>11423041.4161553</v>
       </c>
       <c r="W11" t="n">
-        <v>-999</v>
+        <v>11550184.9883455</v>
       </c>
       <c r="X11" t="n">
-        <v>-999</v>
+        <v>11677328.5605358</v>
       </c>
       <c r="Y11" t="n">
-        <v>-999</v>
+        <v>11804472.132726</v>
       </c>
       <c r="Z11" t="n">
-        <v>-999</v>
+        <v>11921797.7135317</v>
       </c>
       <c r="AA11" t="n">
-        <v>-999</v>
+        <v>12039123.2943374</v>
       </c>
       <c r="AB11" t="n">
-        <v>-999</v>
+        <v>12156448.8751431</v>
       </c>
       <c r="AC11" t="n">
-        <v>-999</v>
+        <v>12273774.4559488</v>
       </c>
       <c r="AD11" t="n">
-        <v>-999</v>
+        <v>12391100.0367545</v>
       </c>
       <c r="AE11" t="n">
-        <v>-999</v>
+        <v>12498149.49044</v>
       </c>
       <c r="AF11" t="n">
-        <v>-999</v>
+        <v>12605198.9441254</v>
       </c>
       <c r="AG11" t="n">
-        <v>-999</v>
+        <v>12712248.3978109</v>
       </c>
       <c r="AH11" t="n">
-        <v>-999</v>
+        <v>12819297.8514963</v>
       </c>
       <c r="AI11" t="n">
-        <v>-999</v>
+        <v>12926347.3051818</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-999</v>
+        <v>13020238.013011</v>
       </c>
       <c r="AK11" t="n">
-        <v>-999</v>
+        <v>13114128.7208401</v>
       </c>
       <c r="AL11" t="n">
-        <v>-999</v>
+        <v>13208019.4286693</v>
       </c>
       <c r="AM11" t="n">
-        <v>-999</v>
+        <v>13301910.1364984</v>
       </c>
       <c r="AN11" t="n">
-        <v>-999</v>
+        <v>13395800.8443276</v>
       </c>
       <c r="AO11" t="n">
-        <v>-999</v>
+        <v>13476723.4265286</v>
       </c>
       <c r="AP11" t="n">
-        <v>-999</v>
+        <v>13557646.0087297</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-999</v>
+        <v>13638568.5909307</v>
       </c>
       <c r="AR11" t="n">
-        <v>-999</v>
+        <v>13719491.1731318</v>
       </c>
       <c r="AS11" t="n">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>limit_gnrl_annual_emissions_mt_n2o</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="S12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="T12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="U12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="V12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="W12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="X12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>-999</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>occrateinit_gnrl_occupancy</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="X13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>3.145207224</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>3.145207224</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>population_gnrl_rural</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5933924.29244</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6013650.36056</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6098119.8348</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6180950.24261</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6256948.83198</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6322214.1204</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5893282.29328168</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5928675.12201756</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5964067.95075344</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5999460.77948932</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6034853.6082252</v>
-      </c>
-      <c r="U14" t="n">
-        <v>6061748.23003496</v>
-      </c>
-      <c r="V14" t="n">
-        <v>6088642.85184472</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6115537.47365448</v>
-      </c>
-      <c r="X14" t="n">
-        <v>6142432.09546424</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>6169326.717274</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>6187758.7564683</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>6206190.7956626</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>6224622.8348569</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6243054.8740512</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6261486.9132455</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>6271848.89556004</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>6282210.87787458</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>6292572.86018912</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6302934.84250366</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>6313296.8248182</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>6314840.16298904</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>6316383.50115988</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>6317926.83933072</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>6319470.17750156</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6321013.5156724</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>6314549.69747136</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>6308085.87927032</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>6301622.06106928</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>6295158.24286824</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>6288694.4246672</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>population_gnrl_urban</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10278097.70756</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10477465.63944</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10687236.1652</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10903408.75739</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11116708.16802</v>
-      </c>
-      <c r="O15" t="n">
-        <v>11320845.8796</v>
-      </c>
-      <c r="P15" t="n">
-        <v>10625274.7787183</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>10761144.6519824</v>
-      </c>
-      <c r="R15" t="n">
-        <v>10897014.5252466</v>
-      </c>
-      <c r="S15" t="n">
-        <v>11032884.3985107</v>
-      </c>
-      <c r="T15" t="n">
-        <v>11168754.2717748</v>
-      </c>
-      <c r="U15" t="n">
-        <v>11295897.843965</v>
-      </c>
-      <c r="V15" t="n">
-        <v>11423041.4161553</v>
-      </c>
-      <c r="W15" t="n">
-        <v>11550184.9883455</v>
-      </c>
-      <c r="X15" t="n">
-        <v>11677328.5605358</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11804472.132726</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>11921797.7135317</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>12039123.2943374</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>12156448.8751431</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12273774.4559488</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>12391100.0367545</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>12498149.49044</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>12605198.9441254</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12712248.3978109</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>12819297.8514963</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>12926347.3051818</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13020238.013011</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>13114128.7208401</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>13208019.4286693</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>13301910.1364984</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>13395800.8443276</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13476723.4265286</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>13557646.0087297</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>13638568.5909307</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>13719491.1731318</v>
-      </c>
-      <c r="AS15" t="n">
         <v>13800413.7553328</v>
       </c>
     </row>
